--- a/Generator/Entity/Document/Position.xlsx
+++ b/Generator/Entity/Document/Position.xlsx
@@ -14,10 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="101">
   <si>
     <t>正则表达</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>布尔值</t>
@@ -33,191 +33,191 @@
   </si>
   <si>
     <t>数据使用类型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>格式</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>版本控制</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>必须项目</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>数值范围</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>字符串长度</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>模式</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>表示</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>更新者</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>更新日期</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>电子邮件</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>是/否</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>错误信息</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>最小值</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>最大值</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>密码</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>日期</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>时间</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>日期时间</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>元数据类型枚举</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>枚举类型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>元数据类型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>普通枚举</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>旗标枚举</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Key项目</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>长度</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>默认值</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>领域专家填写</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>开发人员填写</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>含义</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>输入规则</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>数据库设计</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>用户交互设计</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>画面表示名称</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>领域项目名称</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>变量名称</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>数据模型名称</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>名字空间名称</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>数据集名称</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>主键前缀</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>数据使用类型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>列表类型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>继承</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SuperClass</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>EntityBase</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CompanyTable</t>
@@ -227,10 +227,7 @@
   </si>
   <si>
     <t>说明</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Manager</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
@@ -266,142 +263,136 @@
     <t>InterviewList</t>
   </si>
   <si>
+    <t>Position</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>IndustryBackgroundCode</t>
+  </si>
+  <si>
+    <t>M_IndustryBackground</t>
+  </si>
+  <si>
+    <t>招聘部门</t>
+  </si>
+  <si>
+    <t>M_EmployeeDepartment</t>
+  </si>
+  <si>
+    <t>雇佣类型</t>
+  </si>
+  <si>
+    <t>M_EmploymentType</t>
+  </si>
+  <si>
+    <t>EmploymentType</t>
+  </si>
+  <si>
+    <t>工作地点</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>M_WorkSite</t>
+  </si>
+  <si>
+    <t>JodDetails</t>
+  </si>
+  <si>
+    <t>职位描述及要求</t>
+  </si>
+  <si>
+    <t>辅助表</t>
+  </si>
+  <si>
+    <t>职位信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术类别</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillCatalogCode</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_SkillCatalog</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业类别</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyyy年MM月dd日</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>员工等级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>yyy年MM月dd日</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_EmployeeLevel</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>EmployeeLVList</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Position</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>职位</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>M_EmployeeLevel</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>M_InterviewType</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Priority</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>当前状态</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>FinalStatus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>M_PositionStatus</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Comment</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先级</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Priority</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术类别</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>行业类别</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillCatalogCode</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>M_SkillCatalog</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>IndustryBackgroundCode</t>
-  </si>
-  <si>
-    <t>M_IndustryBackground</t>
-  </si>
-  <si>
-    <t>招聘部门</t>
-  </si>
-  <si>
-    <t>M_EmployeeDepartment</t>
-  </si>
-  <si>
-    <t>雇佣类型</t>
-  </si>
-  <si>
-    <t>M_EmploymentType</t>
-  </si>
-  <si>
-    <t>EmploymentType</t>
-  </si>
-  <si>
-    <t>工作地点</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>M_WorkSite</t>
-  </si>
-  <si>
-    <t>JodDetails</t>
-  </si>
-  <si>
-    <t>职位描述及要求</t>
-  </si>
-  <si>
-    <t>辅助表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Organization</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DepartmentCode</t>
+  </si>
+  <si>
+    <t>EmployeeLevelList</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,27 +400,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -498,6 +468,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -657,141 +634,129 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1093,7 +1058,7 @@
       <pane xSplit="10" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5"/>
@@ -1107,40 +1072,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
-      <c r="A1" s="8"/>
+      <c r="A1" s="6"/>
     </row>
     <row r="2" spans="1:42">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="9" t="s">
+      <c r="C2" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="9" t="s">
+      <c r="F2" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="42"/>
+      <c r="I2" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" s="18"/>
       <c r="AA2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AB2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AC2" s="11" t="s">
+      <c r="AC2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AD2" s="12" t="s">
+      <c r="AD2" s="10" t="s">
         <v>53</v>
       </c>
       <c r="AJ2" s="3" t="s">
@@ -1163,23 +1128,23 @@
       </c>
     </row>
     <row r="3" spans="1:42">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="9" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="9" t="s">
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="J3" s="42"/>
+      <c r="I3" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="18"/>
       <c r="AJ3" s="3" t="s">
         <v>26</v>
       </c>
@@ -1203,194 +1168,193 @@
       </c>
     </row>
     <row r="5" spans="1:42" ht="18.75" customHeight="1">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="38" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="39" t="s">
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="39"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="27" t="s">
+      <c r="L5" s="30"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="30" t="s">
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="22" t="s">
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
+      <c r="AA5" s="32"/>
+      <c r="AB5" s="32"/>
     </row>
     <row r="6" spans="1:42" ht="14.25" customHeight="1">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="36" t="s">
+      <c r="K6" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="36" t="s">
+      <c r="L6" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="36" t="s">
+      <c r="M6" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="23" t="s">
+      <c r="N6" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23" t="s">
+      <c r="O6" s="29"/>
+      <c r="P6" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="24" t="s">
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="25"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="24" t="s">
+      <c r="T6" s="34"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="W6" s="26"/>
-      <c r="X6" s="32" t="s">
+      <c r="W6" s="35"/>
+      <c r="X6" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="Y6" s="32" t="s">
+      <c r="Y6" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="Z6" s="23" t="s">
+      <c r="Z6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AA6" s="23" t="s">
+      <c r="AA6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AB6" s="23" t="s">
+      <c r="AB6" s="29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:42" ht="14.25" customHeight="1">
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="7" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="P7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="Q7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="R7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S7" s="6" t="s">
+      <c r="S7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="T7" s="7" t="s">
+      <c r="T7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="6" t="s">
+      <c r="U7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="V7" s="6" t="s">
+      <c r="V7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="W7" s="6" t="s">
+      <c r="W7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
-    </row>
-    <row r="8" spans="1:42">
-      <c r="A8" s="13"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+    </row>
+    <row r="8" spans="1:42" s="13" customFormat="1">
       <c r="B8" s="14">
         <v>1</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="17" t="s">
+      <c r="C8" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11" t="s">
         <v>99</v>
       </c>
+      <c r="G8" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="H8" s="14" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
+        <v>69</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
       <c r="N8" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
@@ -1406,47 +1370,32 @@
       <c r="Z8" s="14"/>
       <c r="AA8" s="15"/>
       <c r="AB8" s="16"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="13"/>
-      <c r="AL8" s="13"/>
-      <c r="AM8" s="13"/>
-      <c r="AN8" s="13"/>
-      <c r="AO8" s="13"/>
-      <c r="AP8" s="13"/>
-    </row>
-    <row r="9" spans="1:42">
-      <c r="A9" s="13"/>
+    </row>
+    <row r="9" spans="1:42" s="13" customFormat="1">
       <c r="B9" s="14">
         <v>2</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="17" t="s">
+      <c r="C9" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
+        <v>56</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
       <c r="N9" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
@@ -1462,47 +1411,34 @@
       <c r="Z9" s="14"/>
       <c r="AA9" s="15"/>
       <c r="AB9" s="16"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="13"/>
-      <c r="AI9" s="13"/>
-      <c r="AJ9" s="13"/>
-      <c r="AK9" s="13"/>
-      <c r="AL9" s="13"/>
-      <c r="AM9" s="13"/>
-      <c r="AN9" s="13"/>
-      <c r="AO9" s="13"/>
-      <c r="AP9" s="13"/>
-    </row>
-    <row r="10" spans="1:42">
-      <c r="A10" s="13"/>
+    </row>
+    <row r="10" spans="1:42" s="13" customFormat="1">
       <c r="B10" s="14">
         <v>3</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="14"/>
+      <c r="C10" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="I10" s="14"/>
       <c r="J10" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
+        <v>71</v>
+      </c>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
       <c r="N10" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
@@ -1516,109 +1452,81 @@
       <c r="X10" s="14"/>
       <c r="Y10" s="14"/>
       <c r="Z10" s="14"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="13"/>
-      <c r="AI10" s="13"/>
-      <c r="AJ10" s="13"/>
-      <c r="AK10" s="13"/>
-      <c r="AL10" s="13"/>
-      <c r="AM10" s="13"/>
-      <c r="AN10" s="13"/>
-      <c r="AO10" s="13"/>
-      <c r="AP10" s="13"/>
-    </row>
-    <row r="11" spans="1:42">
-      <c r="A11" s="13"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+    </row>
+    <row r="11" spans="1:42" s="13" customFormat="1">
       <c r="B11" s="14">
         <v>4</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>4</v>
+      <c r="C11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
+        <v>57</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
       <c r="N11" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
+      <c r="P11" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>99</v>
+      </c>
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
       <c r="U11" s="14"/>
       <c r="V11" s="14"/>
       <c r="W11" s="14"/>
-      <c r="X11" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y11" s="19" t="s">
-        <v>68</v>
-      </c>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
       <c r="Z11" s="14"/>
       <c r="AA11" s="15"/>
       <c r="AB11" s="16"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="13"/>
-      <c r="AI11" s="13"/>
-      <c r="AJ11" s="13"/>
-      <c r="AK11" s="13"/>
-      <c r="AL11" s="13"/>
-      <c r="AM11" s="13"/>
-      <c r="AN11" s="13"/>
-      <c r="AO11" s="13"/>
-      <c r="AP11" s="13"/>
-    </row>
-    <row r="12" spans="1:42">
-      <c r="A12" s="13"/>
+    </row>
+    <row r="12" spans="1:42" s="13" customFormat="1">
       <c r="B12" s="14">
         <v>5</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="14"/>
+      <c r="C12" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
+        <v>74</v>
+      </c>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
       <c r="N12" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
@@ -1629,59 +1537,38 @@
       <c r="U12" s="14"/>
       <c r="V12" s="14"/>
       <c r="W12" s="14"/>
-      <c r="X12" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y12" s="19" t="s">
-        <v>68</v>
-      </c>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
       <c r="Z12" s="14"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13"/>
-      <c r="AI12" s="13"/>
-      <c r="AJ12" s="13"/>
-      <c r="AK12" s="13"/>
-      <c r="AL12" s="13"/>
-      <c r="AM12" s="13"/>
-      <c r="AN12" s="13"/>
-      <c r="AO12" s="13"/>
-      <c r="AP12" s="13"/>
-    </row>
-    <row r="13" spans="1:42">
-      <c r="A13" s="13"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+    </row>
+    <row r="13" spans="1:42" s="13" customFormat="1">
       <c r="B13" s="14">
         <v>6</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>69</v>
-      </c>
+      <c r="C13" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
       <c r="J13" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="14"/>
+        <v>78</v>
+      </c>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
@@ -1694,52 +1581,37 @@
       <c r="X13" s="14"/>
       <c r="Y13" s="14"/>
       <c r="Z13" s="14"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="13"/>
-      <c r="AI13" s="13"/>
-      <c r="AJ13" s="13"/>
-      <c r="AK13" s="13"/>
-      <c r="AL13" s="13"/>
-      <c r="AM13" s="13"/>
-      <c r="AN13" s="13"/>
-      <c r="AO13" s="13"/>
-      <c r="AP13" s="13"/>
-    </row>
-    <row r="14" spans="1:42">
-      <c r="A14" s="13"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+    </row>
+    <row r="14" spans="1:42" s="13" customFormat="1">
       <c r="B14" s="14">
         <v>7</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>56</v>
-      </c>
+      <c r="C14" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="14"/>
       <c r="J14" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="14"/>
+        <v>82</v>
+      </c>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
@@ -1752,344 +1624,344 @@
       <c r="X14" s="14"/>
       <c r="Y14" s="14"/>
       <c r="Z14" s="14"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="13"/>
-      <c r="AJ14" s="13"/>
-      <c r="AK14" s="13"/>
-      <c r="AL14" s="13"/>
-      <c r="AM14" s="13"/>
-      <c r="AN14" s="13"/>
-      <c r="AO14" s="13"/>
-      <c r="AP14" s="13"/>
-    </row>
-    <row r="15" spans="1:42">
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+    </row>
+    <row r="15" spans="1:42" s="13" customFormat="1">
       <c r="B15" s="14">
         <v>8</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
-    </row>
-    <row r="16" spans="1:42">
+      <c r="C15" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+    </row>
+    <row r="16" spans="1:42" s="13" customFormat="1">
       <c r="B16" s="14">
         <v>9</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-    </row>
-    <row r="17" spans="2:28">
+      <c r="C16" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y16" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="16"/>
+    </row>
+    <row r="17" spans="2:28" s="13" customFormat="1">
       <c r="B17" s="14">
         <v>10</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
-    </row>
-    <row r="18" spans="2:28">
+      <c r="C17" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y17" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="16"/>
+    </row>
+    <row r="18" spans="2:28" s="13" customFormat="1">
       <c r="B18" s="14">
         <v>11</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-    </row>
-    <row r="19" spans="2:28">
+      <c r="C18" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="16"/>
+    </row>
+    <row r="19" spans="2:28" s="13" customFormat="1">
       <c r="B19" s="14">
         <v>12</v>
       </c>
-      <c r="C19" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
-    </row>
-    <row r="20" spans="2:28">
+      <c r="C19" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="16"/>
+    </row>
+    <row r="20" spans="2:28" s="13" customFormat="1">
       <c r="B20" s="14">
         <v>13</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H20" s="2" t="s">
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2" t="s">
+      <c r="G20" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-    </row>
-    <row r="21" spans="2:28">
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+    </row>
+    <row r="21" spans="2:28" s="13" customFormat="1">
       <c r="B21" s="14">
         <v>14</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="G21" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
-    </row>
-    <row r="22" spans="2:28">
+      <c r="I21" s="14"/>
+      <c r="J21" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+    </row>
+    <row r="22" spans="2:28" s="13" customFormat="1">
       <c r="B22" s="14">
         <v>15</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
+      <c r="C22" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
     </row>
     <row r="23" spans="2:28">
       <c r="B23" s="2"/>
@@ -2615,12 +2487,18 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="N5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="F5:J5"/>
@@ -2636,30 +2514,21 @@
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
-    <mergeCell ref="Z5:AB5"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="N5:W5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <dataValidations count="3">
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
       <formula1>$AK$3:$AP$3</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1:X1048576">
       <formula1>$AK$2:$AO$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:J2">
-      <formula1>$AB$2:$AD$2</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Generator/Entity/Document/Position.xlsx
+++ b/Generator/Entity/Document/Position.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="104">
   <si>
     <t>正则表达</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -220,172 +220,186 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>MasterTable</t>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>招聘职位</t>
+  </si>
+  <si>
+    <t>招聘数量</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>OpenDate</t>
+  </si>
+  <si>
+    <t>批准时间</t>
+  </si>
+  <si>
+    <t>WWApprovedDate</t>
+  </si>
+  <si>
+    <t>员工等级</t>
+  </si>
+  <si>
+    <t>面试种类</t>
+  </si>
+  <si>
+    <t>InterviewList</t>
+  </si>
+  <si>
+    <t>Position</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>IndustryBackgroundCode</t>
+  </si>
+  <si>
+    <t>M_IndustryBackground</t>
+  </si>
+  <si>
+    <t>招聘部门</t>
+  </si>
+  <si>
+    <t>M_EmployeeDepartment</t>
+  </si>
+  <si>
+    <t>雇佣类型</t>
+  </si>
+  <si>
+    <t>M_EmploymentType</t>
+  </si>
+  <si>
+    <t>EmploymentType</t>
+  </si>
+  <si>
+    <t>工作地点</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>M_WorkSite</t>
+  </si>
+  <si>
+    <t>JodDetails</t>
+  </si>
+  <si>
+    <t>职位描述及要求</t>
+  </si>
+  <si>
+    <t>辅助表</t>
+  </si>
+  <si>
+    <t>职位信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术类别</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillCatalogCode</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_SkillCatalog</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业类别</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工等级</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_EmployeeLevel</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_InterviewType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Priority</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinalStatus</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_PositionStatus</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmployeeLevelList</t>
+  </si>
+  <si>
     <t>CompanyTable</t>
-  </si>
-  <si>
-    <t>MasterTable</t>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>招聘职位</t>
-  </si>
-  <si>
-    <t>招聘数量</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>开始时间</t>
-  </si>
-  <si>
-    <t>OpenDate</t>
-  </si>
-  <si>
-    <t>批准时间</t>
-  </si>
-  <si>
-    <t>WWApprovedDate</t>
-  </si>
-  <si>
-    <t>员工等级</t>
-  </si>
-  <si>
-    <t>面试种类</t>
-  </si>
-  <si>
-    <t>InterviewList</t>
-  </si>
-  <si>
-    <t>Position</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>IndustryBackgroundCode</t>
-  </si>
-  <si>
-    <t>M_IndustryBackground</t>
-  </si>
-  <si>
-    <t>招聘部门</t>
-  </si>
-  <si>
-    <t>M_EmployeeDepartment</t>
-  </si>
-  <si>
-    <t>雇佣类型</t>
-  </si>
-  <si>
-    <t>M_EmploymentType</t>
-  </si>
-  <si>
-    <t>EmploymentType</t>
-  </si>
-  <si>
-    <t>工作地点</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>M_WorkSite</t>
-  </si>
-  <si>
-    <t>JodDetails</t>
-  </si>
-  <si>
-    <t>职位描述及要求</t>
-  </si>
-  <si>
-    <t>辅助表</t>
-  </si>
-  <si>
-    <t>职位信息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术类别</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillCatalogCode</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>M_SkillCatalog</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>行业类别</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>yyyy年MM月dd日</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工等级</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>M_EmployeeLevel</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>M_InterviewType</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先级</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Priority</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前状态</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FinalStatus</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>M_PositionStatus</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Organization</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CompanyTable</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑到兼容导入导出,日期格式不设定</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡伟敏</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Catalog</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>DepartmentCode</t>
-  </si>
-  <si>
-    <t>EmployeeLevelList</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DepartmentCode.required</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -634,7 +648,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -662,9 +676,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -686,6 +697,69 @@
     <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -700,63 +774,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1055,10 +1072,10 @@
   <dimension ref="A1:AP40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="5" topLeftCell="M6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5"/>
@@ -1078,35 +1095,35 @@
       <c r="B2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="20"/>
+      <c r="C2" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="40"/>
       <c r="E2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="20"/>
+      <c r="F2" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="40"/>
       <c r="H2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="J2" s="18"/>
+      <c r="J2" s="38"/>
       <c r="AA2" s="3" t="s">
         <v>50</v>
       </c>
       <c r="AB2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AC2" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD2" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="AD2" s="10" t="s">
-        <v>53</v>
       </c>
       <c r="AJ2" s="3" t="s">
         <v>5</v>
@@ -1131,20 +1148,20 @@
       <c r="B3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
       <c r="H3" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="J3" s="18"/>
+        <v>53</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="38"/>
       <c r="AJ3" s="3" t="s">
         <v>26</v>
       </c>
@@ -1168,802 +1185,883 @@
       </c>
     </row>
     <row r="5" spans="1:42" ht="18.75" customHeight="1">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="26" t="s">
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="30" t="s">
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="30"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="36" t="s">
+      <c r="L5" s="35"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="39" t="s">
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="32" t="s">
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AA5" s="32"/>
-      <c r="AB5" s="32"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
     </row>
     <row r="6" spans="1:42" ht="14.25" customHeight="1">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="29" t="s">
+      <c r="K6" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="L6" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="M6" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="N6" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="29" t="s">
+      <c r="O6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29" t="s">
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="33" t="s">
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="34"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="33" t="s">
+      <c r="U6" s="21"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="W6" s="35"/>
-      <c r="X6" s="27" t="s">
+      <c r="X6" s="22"/>
+      <c r="Y6" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="Y6" s="27" t="s">
+      <c r="Z6" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="Z6" s="29" t="s">
+      <c r="AA6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AA6" s="29" t="s">
+      <c r="AB6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AB6" s="29" t="s">
+      <c r="AC6" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:42" ht="14.25" customHeight="1">
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="28"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
       <c r="J7" s="29"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="5" t="s">
+      <c r="K7" s="19"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="P7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="Q7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="R7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="S7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="T7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="U7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="V7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="W7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="W7" s="4" t="s">
+      <c r="X7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
+      <c r="Y7" s="29"/>
       <c r="Z7" s="29"/>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="29"/>
-    </row>
-    <row r="8" spans="1:42" s="13" customFormat="1">
-      <c r="B8" s="14">
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+    </row>
+    <row r="8" spans="1:42" s="12" customFormat="1">
+      <c r="B8" s="13">
         <v>1</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11" t="s">
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC8" s="15">
+        <v>42114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" s="12" customFormat="1">
+      <c r="B9" s="13">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC9" s="15">
+        <v>42114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" s="12" customFormat="1">
+      <c r="B10" s="13">
+        <v>3</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC10" s="15">
+        <v>42114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" s="12" customFormat="1">
+      <c r="B11" s="13">
+        <v>4</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13">
+        <v>1</v>
+      </c>
+      <c r="R11" s="13">
         <v>99</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="16"/>
-    </row>
-    <row r="9" spans="1:42" s="13" customFormat="1">
-      <c r="B9" s="14">
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC11" s="15">
+        <v>42114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" s="12" customFormat="1">
+      <c r="B12" s="13">
+        <v>5</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC12" s="15">
+        <v>42114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" s="12" customFormat="1">
+      <c r="B13" s="13">
+        <v>6</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC13" s="15">
+        <v>42114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" s="12" customFormat="1">
+      <c r="B14" s="13">
+        <v>7</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC14" s="15">
+        <v>42114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" s="12" customFormat="1">
+      <c r="B15" s="13">
+        <v>8</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC15" s="15">
+        <v>42114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" s="12" customFormat="1">
+      <c r="B16" s="13">
+        <v>9</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB16" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC16" s="15">
+        <v>42114</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29" s="12" customFormat="1">
+      <c r="B17" s="13">
+        <v>10</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB17" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC17" s="15">
+        <v>42114</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29" s="12" customFormat="1">
+      <c r="B18" s="13">
+        <v>11</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC18" s="15">
+        <v>42114</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29" s="12" customFormat="1">
+      <c r="B19" s="13">
+        <v>12</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC19" s="15">
+        <v>42114</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29" s="12" customFormat="1">
+      <c r="B20" s="13">
+        <v>13</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="11" t="s">
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC20" s="15">
+        <v>42114</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29" s="12" customFormat="1">
+      <c r="B21" s="13">
+        <v>14</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC21" s="15">
+        <v>42114</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29" s="12" customFormat="1">
+      <c r="B22" s="13">
+        <v>15</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="16"/>
-    </row>
-    <row r="10" spans="1:42" s="13" customFormat="1">
-      <c r="B10" s="14">
-        <v>3</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-    </row>
-    <row r="11" spans="1:42" s="13" customFormat="1">
-      <c r="B11" s="14">
-        <v>4</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="14">
-        <v>99</v>
-      </c>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="16"/>
-    </row>
-    <row r="12" spans="1:42" s="13" customFormat="1">
-      <c r="B12" s="14">
-        <v>5</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-    </row>
-    <row r="13" spans="1:42" s="13" customFormat="1">
-      <c r="B13" s="14">
-        <v>6</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
-    </row>
-    <row r="14" spans="1:42" s="13" customFormat="1">
-      <c r="B14" s="14">
-        <v>7</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
-    </row>
-    <row r="15" spans="1:42" s="13" customFormat="1">
-      <c r="B15" s="14">
-        <v>8</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-    </row>
-    <row r="16" spans="1:42" s="13" customFormat="1">
-      <c r="B16" s="14">
-        <v>9</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y16" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="16"/>
-    </row>
-    <row r="17" spans="2:28" s="13" customFormat="1">
-      <c r="B17" s="14">
-        <v>10</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y17" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="16"/>
-    </row>
-    <row r="18" spans="2:28" s="13" customFormat="1">
-      <c r="B18" s="14">
-        <v>11</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11" t="s">
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="16"/>
-    </row>
-    <row r="19" spans="2:28" s="13" customFormat="1">
-      <c r="B19" s="14">
-        <v>12</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="16"/>
-    </row>
-    <row r="20" spans="2:28" s="13" customFormat="1">
-      <c r="B20" s="14">
-        <v>13</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="14"/>
-    </row>
-    <row r="21" spans="2:28" s="13" customFormat="1">
-      <c r="B21" s="14">
-        <v>14</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="14"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="14"/>
-    </row>
-    <row r="22" spans="2:28" s="13" customFormat="1">
-      <c r="B22" s="14">
-        <v>15</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="14"/>
-      <c r="Z22" s="14"/>
-      <c r="AA22" s="14"/>
-      <c r="AB22" s="14"/>
-    </row>
-    <row r="23" spans="2:28">
+      <c r="AC22" s="15">
+        <v>42114</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1992,7 +2090,7 @@
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
     </row>
-    <row r="24" spans="2:28">
+    <row r="24" spans="2:29">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2021,7 +2119,7 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
     </row>
-    <row r="25" spans="2:28">
+    <row r="25" spans="2:29">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2050,7 +2148,7 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
     </row>
-    <row r="26" spans="2:28">
+    <row r="26" spans="2:29">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2079,7 +2177,7 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
     </row>
-    <row r="27" spans="2:28">
+    <row r="27" spans="2:29">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -2108,7 +2206,7 @@
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
     </row>
-    <row r="28" spans="2:28">
+    <row r="28" spans="2:29">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -2137,7 +2235,7 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
     </row>
-    <row r="29" spans="2:28">
+    <row r="29" spans="2:29">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -2166,7 +2264,7 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
     </row>
-    <row r="30" spans="2:28">
+    <row r="30" spans="2:29">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -2195,7 +2293,7 @@
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
     </row>
-    <row r="31" spans="2:28">
+    <row r="31" spans="2:29">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -2224,7 +2322,7 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
     </row>
-    <row r="32" spans="2:28">
+    <row r="32" spans="2:29">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2486,47 +2584,48 @@
       <c r="AB40" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="Z5:AB5"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="N5:W5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
+  <mergeCells count="34">
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="N5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="N6:N7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
       <formula1>$AK$3:$AP$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1:X1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1:X5 X23:X1048576 Y6:Y22">
       <formula1>$AK$2:$AO$2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Generator/Entity/Document/Position.xlsx
+++ b/Generator/Entity/Document/Position.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="104">
   <si>
     <t>正则表达</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -703,12 +703,54 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -732,48 +774,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1072,10 +1072,10 @@
   <dimension ref="A1:AP40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="5" topLeftCell="M6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="5" topLeftCell="O6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N20" sqref="N20"/>
+      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5"/>
@@ -1095,24 +1095,24 @@
       <c r="B2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="40"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="40"/>
+      <c r="G2" s="21"/>
       <c r="H2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="J2" s="38"/>
+      <c r="J2" s="19"/>
       <c r="AA2" s="3" t="s">
         <v>50</v>
       </c>
@@ -1148,20 +1148,20 @@
       <c r="B3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="38"/>
+      <c r="J3" s="19"/>
       <c r="AJ3" s="3" t="s">
         <v>26</v>
       </c>
@@ -1185,51 +1185,51 @@
       </c>
     </row>
     <row r="5" spans="1:42" ht="18.75" customHeight="1">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="34" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="35" t="s">
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="35"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="23" t="s">
+      <c r="L5" s="31"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="26" t="s">
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="18" t="s">
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
     </row>
     <row r="6" spans="1:42" ht="14.25" customHeight="1">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="30" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="28" t="s">
@@ -1241,78 +1241,78 @@
       <c r="F6" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="30" t="s">
         <v>101</v>
       </c>
       <c r="J6" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="32" t="s">
+      <c r="L6" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="32" t="s">
+      <c r="M6" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="32" t="s">
+      <c r="N6" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19" t="s">
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="20" t="s">
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="U6" s="21"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="20" t="s">
+      <c r="U6" s="35"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="X6" s="22"/>
+      <c r="X6" s="36"/>
       <c r="Y6" s="28" t="s">
         <v>47</v>
       </c>
       <c r="Z6" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="AA6" s="19" t="s">
+      <c r="AA6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="AB6" s="19" t="s">
+      <c r="AB6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="AC6" s="19" t="s">
+      <c r="AC6" s="30" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:42" ht="14.25" customHeight="1">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
       <c r="J7" s="29"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
       <c r="O7" s="5" t="s">
         <v>18</v>
       </c>
@@ -1345,9 +1345,9 @@
       </c>
       <c r="Y7" s="29"/>
       <c r="Z7" s="29"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
     </row>
     <row r="8" spans="1:42" s="12" customFormat="1">
       <c r="B8" s="13">
@@ -1426,7 +1426,9 @@
       <c r="O9" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P9" s="13"/>
+      <c r="P9" s="13" t="s">
+        <v>103</v>
+      </c>
       <c r="Q9" s="13"/>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
@@ -1474,7 +1476,9 @@
       <c r="O10" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P10" s="13"/>
+      <c r="P10" s="13" t="s">
+        <v>103</v>
+      </c>
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
@@ -1520,14 +1524,18 @@
       <c r="O11" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P11" s="13"/>
+      <c r="P11" s="13" t="s">
+        <v>103</v>
+      </c>
       <c r="Q11" s="13">
         <v>1</v>
       </c>
       <c r="R11" s="13">
         <v>99</v>
       </c>
-      <c r="S11" s="13"/>
+      <c r="S11" s="13" t="s">
+        <v>103</v>
+      </c>
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
       <c r="V11" s="13"/>
@@ -1572,7 +1580,9 @@
       <c r="O12" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P12" s="13"/>
+      <c r="P12" s="13" t="s">
+        <v>103</v>
+      </c>
       <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
       <c r="S12" s="13"/>
@@ -1618,7 +1628,9 @@
       <c r="O13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P13" s="13"/>
+      <c r="P13" s="13" t="s">
+        <v>103</v>
+      </c>
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
       <c r="S13" s="13"/>
@@ -1666,7 +1678,9 @@
       <c r="O14" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P14" s="13"/>
+      <c r="P14" s="13" t="s">
+        <v>103</v>
+      </c>
       <c r="Q14" s="13"/>
       <c r="R14" s="13"/>
       <c r="S14" s="13"/>
@@ -1714,7 +1728,9 @@
       <c r="O15" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P15" s="13"/>
+      <c r="P15" s="13" t="s">
+        <v>103</v>
+      </c>
       <c r="Q15" s="13"/>
       <c r="R15" s="13"/>
       <c r="S15" s="13"/>
@@ -1760,7 +1776,9 @@
       <c r="O16" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P16" s="13"/>
+      <c r="P16" s="13" t="s">
+        <v>103</v>
+      </c>
       <c r="Q16" s="13"/>
       <c r="R16" s="13"/>
       <c r="S16" s="13"/>
@@ -2585,12 +2603,19 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="N5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="N6:N7"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="F5:J5"/>
@@ -2606,19 +2631,12 @@
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="Z5:AB5"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="N5:W5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
